--- a/template.xlsx
+++ b/template.xlsx
@@ -390,7 +390,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,51 +464,63 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -516,19 +528,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -536,23 +548,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -563,24 +579,28 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -588,47 +608,55 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -708,7 +736,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -716,7 +744,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>56880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,8 +757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380880" y="0"/>
-          <a:ext cx="8286480" cy="747360"/>
+          <a:off x="380520" y="0"/>
+          <a:ext cx="8285040" cy="747000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -753,7 +781,7 @@
   <dimension ref="B1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,569 +985,723 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="17" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="17" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="17" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="17" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="17" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="17" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="17" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="17" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="17" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="17" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="31" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="38"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="I41" s="42" t="s">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35" t="s">
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46" t="s">
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="47" t="s">
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="48"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="45" t="s">
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="53"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="49" t="s">
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="49"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="45" t="s">
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="55"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="50" t="s">
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="49"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="45" t="s">
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="55"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="48" t="s">
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="51"/>
-      <c r="C59" s="52" t="s">
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="58"/>
+      <c r="C59" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="52" t="s">
+      <c r="F59" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H59" s="53"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="54" t="s">
+      <c r="H59" s="60"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="55" t="n">
+      <c r="C60" s="62" t="n">
         <v>43977.86</v>
       </c>
-      <c r="D60" s="55" t="n">
+      <c r="D60" s="62" t="n">
         <v>44007.91</v>
       </c>
-      <c r="E60" s="55" t="n">
+      <c r="E60" s="62" t="n">
         <f aca="false">D60-C60</f>
         <v>30.0500000000029</v>
       </c>
-      <c r="F60" s="55" t="n">
+      <c r="F60" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="G60" s="55" t="n">
+      <c r="G60" s="62" t="n">
         <f aca="false">E60*F60</f>
         <v>30.0500000000029</v>
       </c>
-      <c r="H60" s="56"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="57" t="n">
+      <c r="C61" s="64" t="n">
         <v>42139.65</v>
       </c>
-      <c r="D61" s="57" t="n">
+      <c r="D61" s="64" t="n">
         <v>42170.71</v>
       </c>
-      <c r="E61" s="55" t="n">
+      <c r="E61" s="62" t="n">
         <f aca="false">D61-C61</f>
         <v>31.0599999999977</v>
       </c>
-      <c r="F61" s="55" t="n">
+      <c r="F61" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="G61" s="55" t="n">
+      <c r="G61" s="62" t="n">
         <f aca="false">E61*F61</f>
         <v>31.0599999999977</v>
       </c>
-      <c r="H61" s="56"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="55" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G62" s="55" t="n">
+      <c r="G62" s="62" t="n">
         <f aca="false">G60+G61</f>
         <v>61.1100000000006</v>
       </c>
-      <c r="H62" s="56"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
     </row>
     <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1639,7 +1821,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1662,7 +1844,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -736,15 +736,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -757,8 +757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380520" y="0"/>
-          <a:ext cx="8285040" cy="747000"/>
+          <a:off x="380880" y="0"/>
+          <a:ext cx="8284680" cy="746640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -780,15 +780,16 @@
   </sheetPr>
   <dimension ref="B1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="4.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.85"/>
@@ -871,10 +872,12 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1759,9 +1762,10 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="41">
     <mergeCell ref="B4:F6"/>
     <mergeCell ref="G4:K6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="I8:K8"/>
@@ -1795,9 +1799,11 @@
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="I55:K57"/>
     <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="F57:H57"/>
     <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:H58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -415,7 +415,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,7 +607,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,7 +619,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,9 +742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
+      <xdr:colOff>761040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -758,7 +758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="380880" y="0"/>
-          <a:ext cx="8284680" cy="746640"/>
+          <a:ext cx="8283960" cy="746280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,7 +781,7 @@
   <dimension ref="B1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,7 +789,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.85"/>
@@ -1762,7 +1762,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
     <mergeCell ref="B4:F6"/>
     <mergeCell ref="G4:K6"/>
     <mergeCell ref="B7:D7"/>
@@ -1789,6 +1789,7 @@
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t xml:space="preserve">ФАКТУРА</t>
   </si>
@@ -125,9 +125,6 @@
       </rPr>
       <t xml:space="preserve">Весна Јовановска</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">_____________________</t>
   </si>
   <si>
     <t xml:space="preserve">Број на место на потрошувачка:</t>
@@ -511,6 +508,10 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -641,10 +642,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -736,7 +733,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -744,7 +741,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>761040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -757,8 +754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380880" y="0"/>
-          <a:ext cx="8283960" cy="746280"/>
+          <a:off x="381600" y="0"/>
+          <a:ext cx="8282520" cy="745560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -780,8 +777,8 @@
   </sheetPr>
   <dimension ref="B1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1147,16 +1144,16 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="29"/>
       <c r="K28" s="25" t="s">
         <v>12</v>
@@ -1179,30 +1176,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1213,38 +1210,38 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="35"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="36"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="34" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="19"/>
@@ -1259,58 +1256,58 @@
       <c r="K35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="19"/>
@@ -1325,299 +1322,297 @@
       <c r="K40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47" t="s">
-        <v>27</v>
-      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51" t="s">
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="52" t="s">
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="54"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="53"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="50" t="s">
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="54" t="s">
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="56"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="55"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="50" t="s">
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="56" t="s">
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="56"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="55"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="50" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="58"/>
-      <c r="C59" s="59" t="s">
+      <c r="B59" s="59"/>
+      <c r="C59" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="E59" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="59" t="s">
+      <c r="F59" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="G59" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" s="60"/>
+      <c r="H59" s="61"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="62" t="n">
+      <c r="B60" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="63" t="n">
         <v>43977.86</v>
       </c>
-      <c r="D60" s="62" t="n">
+      <c r="D60" s="63" t="n">
         <v>44007.91</v>
       </c>
-      <c r="E60" s="62" t="n">
+      <c r="E60" s="63" t="n">
         <f aca="false">D60-C60</f>
         <v>30.0500000000029</v>
       </c>
-      <c r="F60" s="62" t="n">
+      <c r="F60" s="63" t="n">
         <v>1</v>
       </c>
-      <c r="G60" s="62" t="n">
+      <c r="G60" s="63" t="n">
         <f aca="false">E60*F60</f>
         <v>30.0500000000029</v>
       </c>
-      <c r="H60" s="63"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="61" t="s">
-        <v>43</v>
+      <c r="B61" s="62" t="s">
+        <v>42</v>
       </c>
       <c r="C61" s="64" t="n">
         <v>42139.65</v>
@@ -1625,18 +1620,18 @@
       <c r="D61" s="64" t="n">
         <v>42170.71</v>
       </c>
-      <c r="E61" s="62" t="n">
+      <c r="E61" s="63" t="n">
         <f aca="false">D61-C61</f>
         <v>31.0599999999977</v>
       </c>
-      <c r="F61" s="62" t="n">
+      <c r="F61" s="63" t="n">
         <v>1</v>
       </c>
-      <c r="G61" s="62" t="n">
+      <c r="G61" s="63" t="n">
         <f aca="false">E61*F61</f>
         <v>31.0599999999977</v>
       </c>
-      <c r="H61" s="63"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
@@ -1646,14 +1641,14 @@
       <c r="C62" s="66"/>
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
-      <c r="F62" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="62" t="n">
+      <c r="F62" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="63" t="n">
         <f aca="false">G60+G61</f>
         <v>61.1100000000006</v>
       </c>
-      <c r="H62" s="63"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
@@ -1762,7 +1757,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="37">
     <mergeCell ref="B4:F6"/>
     <mergeCell ref="G4:K6"/>
     <mergeCell ref="B7:D7"/>
@@ -1790,11 +1785,6 @@
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B36:F39"/>
-    <mergeCell ref="B41:E43"/>
     <mergeCell ref="I41:K43"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="F55:H55"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t xml:space="preserve">ФАКТУРА</t>
   </si>
@@ -30,10 +30,16 @@
     <t xml:space="preserve">Корисник</t>
   </si>
   <si>
-    <t xml:space="preserve">Трансакциска сметка: 250-0340001087-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Депонент банка: Шпаркасе Банка </t>
+    <t xml:space="preserve">ЕНЕРЏИ ОН ДОО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул.Февруарски Поход бр.34-1/14 Скопје</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трансакциска сметка: 210-0741982101-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Депонент банка: НЛБ Банка</t>
   </si>
   <si>
     <t xml:space="preserve">ЕДБ: МК4032020545112</t>
@@ -58,31 +64,31 @@
     <t xml:space="preserve">kWh</t>
   </si>
   <si>
-    <t xml:space="preserve">Вкупен износ без ДДВ за ел. енергија ВТ  ( ден/kWh)                                                                               </t>
+    <t xml:space="preserve">Вкупен износ без ДДВ за ел. енергија ВТ  ( ден/kWh)</t>
   </si>
   <si>
     <t xml:space="preserve">ден.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eлектрична енергија НТ (ниска тарифа)                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкупен износ без ДДВ за ел. енергија НТ ( ден/kWh)                                                                                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Потрошена електрична енергија од повластени производители на ЕЕ                                                                                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цена на Обновлива енергија:                                                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкупен износ без ДДВ за обновлива енергија:                                                                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надомест за користење на пазарот на ел. Енергија ( мкд по kWh)                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкупен износ на фактурата без ДДВ (Даночна основа)                                                                                                           </t>
+    <t xml:space="preserve">Eлектрична енергија НТ (ниска тарифа)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкупен износ без ДДВ за ел. енергија НТ ( ден/kWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потрошена електрична енергија од повластени производители на ЕЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена на Обновлива енергија:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкупен износ без ДДВ за обновлива енергија:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надомест за користење на пазарот на ел. Енергија ( мкд по kWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкупен износ на фактурата без ДДВ (Даночна основа)</t>
   </si>
   <si>
     <t xml:space="preserve">ДДВ (%):</t>
@@ -123,7 +129,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Весна Јовановска</t>
+      <t xml:space="preserve">Филип Велкоски</t>
     </r>
   </si>
   <si>
@@ -393,171 +399,167 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -576,12 +578,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -589,15 +595,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -605,55 +611,55 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -728,60 +734,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381600" y="0"/>
-          <a:ext cx="8282520" cy="745560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L1048576"/>
+  <dimension ref="B1:L66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.35"/>
@@ -845,7 +809,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -857,7 +821,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -869,13 +833,15 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -886,9 +852,12 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8"/>
@@ -896,12 +865,12 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8"/>
@@ -909,574 +878,574 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="H10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="H13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="10"/>
+      <c r="H13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="8"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="L13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="19"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="23" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="23" t="s">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="23" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="23" t="s">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="25" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="23" t="s">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="30" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="23" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="25" t="s">
-        <v>12</v>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35" t="s">
-        <v>12</v>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="35" t="s">
-        <v>23</v>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="34" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="42"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
+      <c r="B36" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="B41" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="47"/>
       <c r="J42" s="47"/>
       <c r="K42" s="47"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="47"/>
       <c r="J43" s="47"/>
       <c r="K43" s="47"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="48"/>
       <c r="J45" s="48"/>
       <c r="K45" s="48"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="48"/>
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="48"/>
       <c r="J47" s="48"/>
       <c r="K47" s="48"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="48"/>
       <c r="J48" s="48"/>
       <c r="K48" s="48"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="48"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="48"/>
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="48"/>
       <c r="J51" s="48"/>
       <c r="K51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="48"/>
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
@@ -1486,41 +1455,41 @@
       <c r="C54" s="49"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="50"/>
       <c r="J54" s="50"/>
       <c r="K54" s="50"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J55" s="53"/>
       <c r="K55" s="53"/>
       <c r="L55" s="54"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C56" s="51"/>
       <c r="D56" s="51"/>
       <c r="E56" s="51"/>
       <c r="F56" s="55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
@@ -1529,15 +1498,15 @@
       <c r="K56" s="53"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
       <c r="E57" s="51"/>
       <c r="F57" s="57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57" s="57"/>
       <c r="H57" s="57"/>
@@ -1546,47 +1515,47 @@
       <c r="K57" s="53"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C58" s="51"/>
       <c r="D58" s="51"/>
       <c r="E58" s="51"/>
       <c r="F58" s="58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G58" s="58"/>
       <c r="H58" s="58"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="59"/>
       <c r="C59" s="60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" s="60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H59" s="61"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60" s="63" t="n">
         <v>43977.86</v>
@@ -1605,14 +1574,14 @@
         <f aca="false">E60*F60</f>
         <v>30.0500000000029</v>
       </c>
-      <c r="H60" s="30"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="29"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C61" s="64" t="n">
         <v>42139.65</v>
@@ -1631,131 +1600,76 @@
         <f aca="false">E61*F61</f>
         <v>31.0599999999977</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="29"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="65"/>
       <c r="C62" s="66"/>
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
       <c r="F62" s="63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G62" s="63" t="n">
         <f aca="false">G60+G61</f>
         <v>61.1100000000006</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-    </row>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="B4:F6"/>
@@ -1763,7 +1677,7 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="B8:F9"/>
-    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:K10"/>
@@ -1803,7 +1717,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
